--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D97DDF-031D-4905-A0DC-536777393BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA8A9B-4F16-49A4-8455-DC6E8D1366F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Category</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Arrays</t>
-  </si>
-  <si>
-    <t>Group Anagram</t>
   </si>
   <si>
     <t xml:space="preserve">Brute Force - sort all strings and store it in a dcitionary where key is the sorted string
@@ -74,16 +71,43 @@
 This subtle distinction arises because in Python the strings are not duplicated when added to the dictionary, which keeps the extra space usage to 
 O(n) rather than O(n×m)
 </t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Use a counter. Sort by counter frequency and select K numers from the list</t>
+  </si>
+  <si>
+    <t>Sorting the keys of the Counter object based on their frequency takes O(n log n) time, which is the dominant operation in terms of time complexity.
+Since the sorting step has the highest time complexity, the overall time complexity is O(n log n).</t>
+  </si>
+  <si>
+    <t>O(n) for creation of the counter. Note list creation at the end of the k elements takes O(k) spacd but typically n is much greater than k thus O(n) dominates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,16 +130,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,7 +489,7 @@
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="26.453125" customWidth="1"/>
     <col min="3" max="3" width="27.90625" customWidth="1"/>
-    <col min="4" max="4" width="44.36328125" customWidth="1"/>
+    <col min="4" max="4" width="74" customWidth="1"/>
     <col min="5" max="5" width="32.90625" customWidth="1"/>
     <col min="6" max="6" width="51.90625" customWidth="1"/>
   </cols>
@@ -491,20 +521,56 @@
       <c r="B2">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>10</v>
+      </c>
+      <c r="B3">
+        <v>347</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>347</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{681E1671-DC0B-47D9-A85E-3F1F5E1FBEAE}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{274D70F2-43D2-4226-BC83-BAD5CEA957D1}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{C0450B54-F946-4A43-8AE8-FE782D8AB0D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA8A9B-4F16-49A4-8455-DC6E8D1366F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E67272-208E-4E06-A18E-A83B3640A432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Category</t>
   </si>
@@ -90,6 +90,19 @@
   </si>
   <si>
     <t>O(n) for creation of the counter. Note list creation at the end of the k elements takes O(k) spacd but typically n is much greater than k thus O(n) dominates</t>
+  </si>
+  <si>
+    <t>Use a min_heap to store the freq, num in the min_heap and keep it of size k. Finally return the min_heap</t>
+  </si>
+  <si>
+    <t>For each of the distinct elements (at most n), we perform heap operations that take O(log k) time. So overll time complexity in O(n* log k)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The space complexity is O(n):
+The Counter object requires O(n) space in the worst case (when all elements are unique).
+The heap requires O(k) space.
+Since n ≥ k, the overall space complexity is dominated by O(n).
+</t>
   </si>
 </sst>
 </file>
@@ -142,7 +155,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,44 +496,45 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" customWidth="1"/>
-    <col min="4" max="4" width="74" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" customWidth="1"/>
-    <col min="6" max="6" width="51.90625" customWidth="1"/>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="74" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.90625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -534,34 +550,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>347</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>347</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -572,5 +597,6 @@
     <hyperlink ref="C2" r:id="rId3" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{C0450B54-F946-4A43-8AE8-FE782D8AB0D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E67272-208E-4E06-A18E-A83B3640A432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1301C57-94BD-444C-9AC4-A6F615C69F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Category</t>
   </si>
@@ -103,6 +103,22 @@
 The heap requires O(k) space.
 Since n ≥ k, the overall space complexity is dominated by O(n).
 </t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Encoding: Calculate a 4 string format for length of string. Append Length+string for each of the string oin list
+Decoding : First slice the 4 string to extract length of the string and then select the string. Move on to the next Length+string combo and repeat</t>
+  </si>
+  <si>
+    <t>Space Complexity: O(L + n) for encoding and O(L) for decoding</t>
+  </si>
+  <si>
+    <t>Time Complexity: O(n + L) for encoding and O(L) for decoding
+where
+n is the number of strings
+L is the total length of all strings combined</t>
   </si>
 </sst>
 </file>
@@ -147,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -157,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,13 +609,34 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>271</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{681E1671-DC0B-47D9-A85E-3F1F5E1FBEAE}"/>
     <hyperlink ref="C4" r:id="rId2" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{274D70F2-43D2-4226-BC83-BAD5CEA957D1}"/>
     <hyperlink ref="C2" r:id="rId3" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{C0450B54-F946-4A43-8AE8-FE782D8AB0D0}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/encode-and-decode-strings" xr:uid="{A063A06F-9EBB-4AA9-B80C-A543256BF4E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1301C57-94BD-444C-9AC4-A6F615C69F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E8D9C1-3BCB-46E8-A522-95406064F984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Category</t>
   </si>
@@ -119,6 +119,18 @@
 where
 n is the number of strings
 L is the total length of all strings combined</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Calculate left product and right product and multiple both for each index to get output</t>
+  </si>
+  <si>
+    <t>O(n) each for left and right pass which means O(n) + O(n) = O(n)</t>
+  </si>
+  <si>
+    <t>O(1) since we only use constant amount of space</t>
   </si>
 </sst>
 </file>
@@ -163,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -177,6 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,14 +642,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>238</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{681E1671-DC0B-47D9-A85E-3F1F5E1FBEAE}"/>
     <hyperlink ref="C4" r:id="rId2" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{274D70F2-43D2-4226-BC83-BAD5CEA957D1}"/>
     <hyperlink ref="C2" r:id="rId3" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{C0450B54-F946-4A43-8AE8-FE782D8AB0D0}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/encode-and-decode-strings" xr:uid="{A063A06F-9EBB-4AA9-B80C-A543256BF4E4}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CF343F4E-FEF0-40E0-9959-0A92CA385D07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E8D9C1-3BCB-46E8-A522-95406064F984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B2A9D6-8E83-41F6-A9CF-2213CF68DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Category</t>
   </si>
@@ -131,6 +131,22 @@
   </si>
   <si>
     <t>O(1) since we only use constant amount of space</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays </t>
+  </si>
+  <si>
+    <t>Brute Force - Check all the substring one by one to see if it has no duplicate character.</t>
+  </si>
+  <si>
+    <t>Brute Force - O(n**3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brute Force - The space taken by the char set O(min(n,m) where n in the length of the string and m is the char set (128 for ASCII , 26 for smaller alphabets
+</t>
   </si>
 </sst>
 </file>
@@ -525,17 +541,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="74" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="51.90625" style="1" customWidth="1"/>
@@ -643,6 +659,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="1">
         <v>238</v>
       </c>
@@ -657,6 +676,26 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -666,8 +705,9 @@
     <hyperlink ref="C2" r:id="rId3" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{C0450B54-F946-4A43-8AE8-FE782D8AB0D0}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/encode-and-decode-strings" xr:uid="{A063A06F-9EBB-4AA9-B80C-A543256BF4E4}"/>
     <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CF343F4E-FEF0-40E0-9959-0A92CA385D07}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{F03BA630-2C59-4CCB-A744-F46C15050644}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B2A9D6-8E83-41F6-A9CF-2213CF68DD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96818C38-5992-4906-B3A7-37AFC6C92982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Category</t>
   </si>
@@ -147,6 +147,9 @@
   <si>
     <t xml:space="preserve">Brute Force - The space taken by the char set O(min(n,m) where n in the length of the string and m is the char set (128 for ASCII , 26 for smaller alphabets
 </t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,6 +701,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>124</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{681E1671-DC0B-47D9-A85E-3F1F5E1FBEAE}"/>
@@ -706,8 +717,9 @@
     <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/encode-and-decode-strings" xr:uid="{A063A06F-9EBB-4AA9-B80C-A543256BF4E4}"/>
     <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CF343F4E-FEF0-40E0-9959-0A92CA385D07}"/>
     <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{F03BA630-2C59-4CCB-A744-F46C15050644}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{1AC349A6-E494-4B7B-8227-2E33E2081569}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96818C38-5992-4906-B3A7-37AFC6C92982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24BB6C-B7D1-4EFF-82D5-FB6F8B6B23A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Category</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>#Post traversal
+Do a dfs
+Keep max_sum which should be the sum of the left max path and the right max path + the node val
+#remember when you return you will return only the node.val and max of left_sum or right_sum. reason is as you pass on the value to the root you can only pass left or right max path</t>
+  </si>
+  <si>
+    <t>dfs visits each node and hence time complexity is O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main factor contributing to the space complexity (beyond the storage for the tree itself) is the recursion call stack used by the dfs function. The maximum depth of the recursion call stack corresponds to the height (H) of the binary tree. . Worst case it is a skewed </t>
   </si>
 </sst>
 </file>
@@ -546,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,12 +713,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>124</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24BB6C-B7D1-4EFF-82D5-FB6F8B6B23A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FED179-0323-4705-8E54-F8885582C6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Category</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t xml:space="preserve"> The main factor contributing to the space complexity (beyond the storage for the tree itself) is the recursion call stack used by the dfs function. The maximum depth of the recursion call stack corresponds to the height (H) of the binary tree. . Worst case it is a skewed </t>
+  </si>
+  <si>
+    <t>Tree and Graphs</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
   </si>
 </sst>
 </file>
@@ -556,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,6 +736,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>199</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{681E1671-DC0B-47D9-A85E-3F1F5E1FBEAE}"/>
@@ -739,8 +756,9 @@
     <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CF343F4E-FEF0-40E0-9959-0A92CA385D07}"/>
     <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{F03BA630-2C59-4CCB-A744-F46C15050644}"/>
     <hyperlink ref="C8" r:id="rId7" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{1AC349A6-E494-4B7B-8227-2E33E2081569}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{4208EADF-904A-4295-85BA-F8088FEFD256}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FED179-0323-4705-8E54-F8885582C6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA4044A-80C7-48A7-A931-12F1F08713B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Category</t>
   </si>
@@ -168,6 +168,16 @@
   </si>
   <si>
     <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do a BFS. Create a queue. Store the root in the queue and while the queue is not empty keep iterating to the level_length and then add the right_most element (max_length) to result </t>
+  </si>
+  <si>
+    <t>BFS visits each node so time complexity in O(N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The space is taken by the queue. Space complexity is O(w) where w is max width of the tree. Worst case for balanced tree it will be N/2 where N is the number of nodes
+</t>
   </si>
 </sst>
 </file>
@@ -564,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,7 +746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -745,6 +755,15 @@
       </c>
       <c r="C9" s="5" t="s">
         <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA4044A-80C7-48A7-A931-12F1F08713B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B918D3-448C-4F18-8262-1BE2DC58E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Category</t>
   </si>
@@ -178,6 +178,39 @@
   <si>
     <t xml:space="preserve">The space is taken by the queue. Space complexity is O(w) where w is max width of the tree. Worst case for balanced tree it will be N/2 where N is the number of nodes
 </t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>271+B5</t>
+  </si>
+  <si>
+    <t>Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a stack to store the opening brackets. As soon as a close bracket comes and the stack isnt empty, pop the stack or else add the index in a set which would be index_to_remove. Iterate through the string once again and remove the index to remove idneces and join </t>
+  </si>
+  <si>
+    <t>O(n) + O(n) for iterating through the string twice</t>
+  </si>
+  <si>
+    <t>Worse case O(n) + O(n) +O(n) for the stack and the index_to_remove  and result list</t>
+  </si>
+  <si>
+    <t>Two pointers</t>
+  </si>
+  <si>
+    <t>Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>Use a helper function check_palindrome but iterate through the larger string, moment there is a mismatch use or condition - check_palindrome(s,i+1,j) or check_palindrome(s,i, j-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(n) fot the string traversal. The check_palindrome </t>
+  </si>
+  <si>
+    <t>Variables: The algorithm uses a few integer variables (i, j) which take constant space, O(1).</t>
   </si>
 </sst>
 </file>
@@ -572,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,8 +706,8 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>271</v>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -764,6 +797,46 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1249</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>680</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -776,8 +849,10 @@
     <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{F03BA630-2C59-4CCB-A744-F46C15050644}"/>
     <hyperlink ref="C8" r:id="rId7" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{1AC349A6-E494-4B7B-8227-2E33E2081569}"/>
     <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{4208EADF-904A-4295-85BA-F8088FEFD256}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/" xr:uid="{B1BFC614-2576-41CA-B4AA-E2D137ED8FD2}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/problems/valid-palindrome-ii/" xr:uid="{AEDDCEEF-3247-4F37-BC0D-578A3A5B434C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B918D3-448C-4F18-8262-1BE2DC58E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC1EC09-B71B-4F13-ADD9-B0CC09F05589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>Variables: The algorithm uses a few integer variables (i, j) which take constant space, O(1).</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Use min heap. While length of th heap is larger than k, keep popping elements from heap till the size of the heap is k elements. For min heap you can select heap[0], which will give kth largest element</t>
+  </si>
+  <si>
+    <t>Creating heap - O(n). Heapifying heap - O(n), Removing elements - n-k times while loop runs and each heapop is O(log(n)) so total O((n-k)log(n)) , Total O(n + n +(n-k)log(N))</t>
+  </si>
+  <si>
+    <t>min heap solution presented in the original code is O(n), where n is the number of elements in the input array nums.</t>
   </si>
 </sst>
 </file>
@@ -605,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,6 +851,26 @@
         <v>51</v>
       </c>
     </row>
+    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>215</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{681E1671-DC0B-47D9-A85E-3F1F5E1FBEAE}"/>
@@ -851,8 +883,9 @@
     <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{4208EADF-904A-4295-85BA-F8088FEFD256}"/>
     <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/" xr:uid="{B1BFC614-2576-41CA-B4AA-E2D137ED8FD2}"/>
     <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/problems/valid-palindrome-ii/" xr:uid="{AEDDCEEF-3247-4F37-BC0D-578A3A5B434C}"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://leetcode.com/problems/kth-largest-element-in-an-array/" xr:uid="{75F78499-BA0C-44E2-9FB3-329723B2412B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC1EC09-B71B-4F13-ADD9-B0CC09F05589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8549EF5-2217-43D4-B611-E8B2D75924A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Category</t>
   </si>
@@ -223,6 +223,33 @@
   </si>
   <si>
     <t>min heap solution presented in the original code is O(n), where n is the number of elements in the input array nums.</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>use a stack and value and last operator. Then enumerate through the string, update value if char is digit, if char is not a number, check the last operator and append value to the stack accordingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(n) as we iterate through each character of the input string exactly once
+</t>
+  </si>
+  <si>
+    <t>The space complexity is determined by the stack storage:
+In the worst case, every other character could be a number followed by a '+' or '-' operator, resulting in a stack with approximately n/2 elements. Hence space complexity in O(n)</t>
+  </si>
+  <si>
+    <t> Lowest Common Ancestor of a Binary Tree III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use two pointers a,b mapped to p,q and traverse to their respective parents.one its reaches parents point them to q, p. Return a </t>
+  </si>
+  <si>
+    <t>Each pointer might traverse at most 2h nodes, where h is the height of the tree. Since we're considering the asymptotic complexity, this simplifies to O(h). For a balanced binary tree, h would be log(n) where n is the number of nodes, making the time complexity O(log n). However, in the worst case of a skewed tree, h could be n, making the time complexity O(n)</t>
+  </si>
+  <si>
+    <t>The space complexity is O(1) or constant space because:
+The algorithm only uses two pointers ('a' and 'b') regardless of the input size.</t>
   </si>
 </sst>
 </file>
@@ -617,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,6 +898,46 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1">
+        <v>227</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1650</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{681E1671-DC0B-47D9-A85E-3F1F5E1FBEAE}"/>
@@ -884,8 +951,10 @@
     <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/" xr:uid="{B1BFC614-2576-41CA-B4AA-E2D137ED8FD2}"/>
     <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/problems/valid-palindrome-ii/" xr:uid="{AEDDCEEF-3247-4F37-BC0D-578A3A5B434C}"/>
     <hyperlink ref="C12" r:id="rId11" display="https://leetcode.com/problems/kth-largest-element-in-an-array/" xr:uid="{75F78499-BA0C-44E2-9FB3-329723B2412B}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://leetcode.com/problems/basic-calculator-ii/" xr:uid="{8DBA1D9F-FCC4-417A-9403-DC18CA8527B7}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iii/" xr:uid="{EA7FDFE9-EC2C-4ED0-882A-A6F9A5E3D200}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8549EF5-2217-43D4-B611-E8B2D75924A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90333D36-10F7-414C-B8C1-90C60AEB381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Category</t>
   </si>
@@ -250,6 +250,26 @@
   <si>
     <t>The space complexity is O(1) or constant space because:
 The algorithm only uses two pointers ('a' and 'b') regardless of the input size.</t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t> We go through the list of nested integers one by one, keeping track of the current depth d. If a nested integer is an integer, n, we calculate its sum as n×d. If the nested integer is a list, we calculate the sum of this list recursively using the same process but with depth equals d+1.</t>
+  </si>
+  <si>
+    <t>Recursion stack - O(n)</t>
+  </si>
+  <si>
+    <t>The space complexity of this solution is O(d), where d is the maximum depth of the nested list.
+This is due to:
+The recursive nature of the DFS implementation
+Each recursive call adds a new frame to the call stack
+The maximum number of frames on the call stack at any given time corresponds to the maximum depth of the nested list
+No additional data structures are used that grow with the input size</t>
   </si>
 </sst>
 </file>
@@ -644,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,6 +958,26 @@
         <v>63</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1">
+        <v>339</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{681E1671-DC0B-47D9-A85E-3F1F5E1FBEAE}"/>
@@ -953,8 +993,9 @@
     <hyperlink ref="C12" r:id="rId11" display="https://leetcode.com/problems/kth-largest-element-in-an-array/" xr:uid="{75F78499-BA0C-44E2-9FB3-329723B2412B}"/>
     <hyperlink ref="C13" r:id="rId12" display="https://leetcode.com/problems/basic-calculator-ii/" xr:uid="{8DBA1D9F-FCC4-417A-9403-DC18CA8527B7}"/>
     <hyperlink ref="C14" r:id="rId13" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iii/" xr:uid="{EA7FDFE9-EC2C-4ED0-882A-A6F9A5E3D200}"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://leetcode.com/problems/nested-list-weight-sum/" xr:uid="{1A063C60-CD9B-41E0-BCB7-34048AD51C7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90333D36-10F7-414C-B8C1-90C60AEB381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1505DD-7F3C-4D26-A8FE-4F7639E3A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Category</t>
   </si>
@@ -271,12 +271,153 @@
 The maximum number of frames on the call stack at any given time corresponds to the maximum depth of the nested list
 No additional data structures are used that grow with the input size</t>
   </si>
+  <si>
+    <t>Random Pick with Weight</t>
+  </si>
+  <si>
+    <t>Create a list that will add cumulative weights in prefix_sums. Then create a function pickIndex that does binary search to pick the index. Remember you use random.random() for the target</t>
+  </si>
+  <si>
+    <t>The space complexity of the code is O(n)O(n), where nn is the length of the input list ww. This is because the only significant data structure used is the prefix sums list, which stores one cumulative sum for each element in ww.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Complexity
+Initialization (__init__ method):
+The constructor iterates through the input list  w
+w once to compute the prefix sums.  Thus, each call to pickIndex has a time complexity of 
+O(log n).
+</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <r>
+      <t>The algorithm halves the search space (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>r - l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) in each recursive step. the time complexity is O(log n).</t>
+    </r>
+  </si>
+  <si>
+    <t>The algorithm uses recursion. Each recursive call adds a new frame to the call stack. The algorithm uses recursion. Each recursive call adds a new frame to the call stack.
+The maximum depth of the recursion corresponds to the number of times the search space is halved, which is O(log n).</t>
+  </si>
+  <si>
+    <t>the condition is nums[mid] &gt; nums[mid+1] , either ways a slop would exist and we can use recursive Binary search for this and keep eliminating one half</t>
+  </si>
+  <si>
+    <t>the condition is nums[mid] &gt; nums[mid+1] , we use iterative Binary search</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time complexity is O(log n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The algorithm uses a fixed number of variables (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>mid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) to keep track of the search boundaries and the middle index. Therefore, the space complexity is O(1).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +432,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -664,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.453125" style="1" customWidth="1"/>
@@ -681,7 +835,7 @@
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="87">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="87">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -741,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="101.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -761,7 +915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="87">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -781,7 +935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="29">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,7 +955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="58">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -821,7 +975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="101.5">
       <c r="B8" s="1">
         <v>124</v>
       </c>
@@ -838,7 +992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="58">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -858,7 +1012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="58">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -878,7 +1032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="43.5">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -898,7 +1052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="72.5">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,7 +1072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="72.5">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -938,7 +1092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="145">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -958,7 +1112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="203">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -976,6 +1130,66 @@
       </c>
       <c r="F15" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="145">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1">
+        <v>528</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="72.5">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1">
+        <v>162</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1">
+        <v>162</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -994,8 +1208,11 @@
     <hyperlink ref="C13" r:id="rId12" display="https://leetcode.com/problems/basic-calculator-ii/" xr:uid="{8DBA1D9F-FCC4-417A-9403-DC18CA8527B7}"/>
     <hyperlink ref="C14" r:id="rId13" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iii/" xr:uid="{EA7FDFE9-EC2C-4ED0-882A-A6F9A5E3D200}"/>
     <hyperlink ref="C15" r:id="rId14" display="https://leetcode.com/problems/nested-list-weight-sum/" xr:uid="{1A063C60-CD9B-41E0-BCB7-34048AD51C7D}"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://leetcode.com/problems/random-pick-with-weight/" xr:uid="{946EF182-E570-4818-BD25-F9BA2C5CE4B7}"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://leetcode.com/problems/find-peak-element/" xr:uid="{3406DD47-2508-4382-BA2E-E0F3F789A4F7}"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://leetcode.com/problems/find-peak-element/" xr:uid="{61E2E0B0-5CE2-42C4-8341-CDD7A83F6CAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/algorithm_list.xlsx
+++ b/algorithm_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1505DD-7F3C-4D26-A8FE-4F7639E3A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100E072E-0A84-43EC-AF3E-C3ED49D30EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{379DC1C9-35C1-443A-8BE3-39CE01DBA4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Category</t>
   </si>
@@ -411,6 +411,20 @@
       </rPr>
       <t>) to keep track of the search boundaries and the middle index. Therefore, the space complexity is O(1).</t>
     </r>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Same as Binary Tree Maxium Path sum, Do a dfs
+Keep max_sum which should be the sum of the left max path and the right max path + the node val
+#remember when you return you will return only the node.val and max of left_sum or right_sum. reason is as you pass on the value to the root you can only pass left or right max path</t>
+  </si>
+  <si>
+    <t>Time complexity: O(N). This is because in our recursion function dfs, we only enter and exit from each node once. We know this because each node is entered from its parent, and in a tree, nodes only have one parent.</t>
+  </si>
+  <si>
+    <t>Space complexity: O(N). The space complexity depends on the size of our implicit call stack during our DFS, which relates to the height of the tree. In the worst case, the tree is skewed so the height of the tree is O(N). If the tree is balanced, it'd be O(logN)</t>
   </si>
 </sst>
 </file>
@@ -818,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD0A2B-7174-4393-8E63-B77E3A1E3BD1}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1190,6 +1204,26 @@
       </c>
       <c r="F18" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="87">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>543</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1211,8 +1245,9 @@
     <hyperlink ref="C16" r:id="rId15" display="https://leetcode.com/problems/random-pick-with-weight/" xr:uid="{946EF182-E570-4818-BD25-F9BA2C5CE4B7}"/>
     <hyperlink ref="C17" r:id="rId16" display="https://leetcode.com/problems/find-peak-element/" xr:uid="{3406DD47-2508-4382-BA2E-E0F3F789A4F7}"/>
     <hyperlink ref="C18" r:id="rId17" display="https://leetcode.com/problems/find-peak-element/" xr:uid="{61E2E0B0-5CE2-42C4-8341-CDD7A83F6CAB}"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://leetcode.com/problems/diameter-of-binary-tree/" xr:uid="{B65C1ED6-1216-4AFB-90A4-69D98E734764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>